--- a/artfynd/A 34703-2025 artfynd.xlsx
+++ b/artfynd/A 34703-2025 artfynd.xlsx
@@ -2050,7 +2050,7 @@
         <v>129101956</v>
       </c>
       <c r="B15" t="n">
-        <v>57724</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/artfynd/A 34703-2025 artfynd.xlsx
+++ b/artfynd/A 34703-2025 artfynd.xlsx
@@ -3631,7 +3631,7 @@
         <v>129101989</v>
       </c>
       <c r="B30" t="n">
-        <v>57568</v>
+        <v>57725</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
